--- a/MEDIA/3013_拉亞直營營業額(2020-06-01~2020-06-30).xlsx
+++ b/MEDIA/3013_拉亞直營營業額(2020-06-01~2020-06-30).xlsx
@@ -510,80 +510,80 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>18830</v>
+        <v>24290</v>
       </c>
       <c r="E3" t="n">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="F3" t="n">
-        <v>2895</v>
+        <v>10760</v>
       </c>
       <c r="G3" t="n">
-        <v>15.4</v>
+        <v>44.3</v>
       </c>
       <c r="H3" t="n">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="I3" t="n">
-        <v>4835</v>
+        <v>7305</v>
       </c>
       <c r="J3" t="n">
-        <v>25.7</v>
+        <v>30.1</v>
       </c>
       <c r="K3" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="L3" t="n">
-        <v>4485</v>
+        <v>4200</v>
       </c>
       <c r="M3" t="n">
-        <v>23.8</v>
+        <v>17.3</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>185</v>
+        <v>575</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="T3" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>1810</v>
+        <v>1450</v>
       </c>
       <c r="V3" t="n">
-        <v>9.6</v>
+        <v>6</v>
       </c>
       <c r="W3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>4530</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>24.1</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="AA3" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4">
@@ -599,80 +599,80 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>15870</v>
+        <v>23960</v>
       </c>
       <c r="E4" t="n">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="F4" t="n">
-        <v>2055</v>
+        <v>8949</v>
       </c>
       <c r="G4" t="n">
-        <v>12.9</v>
+        <v>37.3</v>
       </c>
       <c r="H4" t="n">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="I4" t="n">
-        <v>5220</v>
+        <v>6975</v>
       </c>
       <c r="J4" t="n">
-        <v>32.9</v>
+        <v>29.1</v>
       </c>
       <c r="K4" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="L4" t="n">
-        <v>2985</v>
+        <v>6076</v>
       </c>
       <c r="M4" t="n">
-        <v>18.8</v>
+        <v>25.4</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R4" t="n">
-        <v>200</v>
+        <v>335</v>
       </c>
       <c r="S4" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="T4" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="U4" t="n">
-        <v>2510</v>
+        <v>1625</v>
       </c>
       <c r="V4" t="n">
-        <v>15.8</v>
+        <v>6.8</v>
       </c>
       <c r="W4" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>2805</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.7</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="AA4" t="n">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
@@ -688,80 +688,80 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>15115</v>
+        <v>24965</v>
       </c>
       <c r="E5" t="n">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="F5" t="n">
-        <v>2090</v>
+        <v>11650</v>
       </c>
       <c r="G5" t="n">
-        <v>13.8</v>
+        <v>46.7</v>
       </c>
       <c r="H5" t="n">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I5" t="n">
-        <v>5435</v>
+        <v>5785</v>
       </c>
       <c r="J5" t="n">
-        <v>36</v>
+        <v>23.2</v>
       </c>
       <c r="K5" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="L5" t="n">
-        <v>3705</v>
+        <v>5495</v>
       </c>
       <c r="M5" t="n">
-        <v>24.5</v>
+        <v>22</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>1180</v>
+        <v>670</v>
       </c>
       <c r="S5" t="n">
-        <v>7.8</v>
+        <v>2.7</v>
       </c>
       <c r="T5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U5" t="n">
-        <v>810</v>
+        <v>1365</v>
       </c>
       <c r="V5" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="W5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>1855</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="AA5" t="n">
-        <v>121</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6">
@@ -777,80 +777,80 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>14650</v>
+        <v>27435</v>
       </c>
       <c r="E6" t="n">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="F6" t="n">
-        <v>1915</v>
+        <v>11855</v>
       </c>
       <c r="G6" t="n">
-        <v>13.1</v>
+        <v>43.2</v>
       </c>
       <c r="H6" t="n">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="I6" t="n">
-        <v>3110</v>
+        <v>6415</v>
       </c>
       <c r="J6" t="n">
-        <v>21.2</v>
+        <v>23.4</v>
       </c>
       <c r="K6" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L6" t="n">
-        <v>3710</v>
+        <v>6880</v>
       </c>
       <c r="M6" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>980</v>
+        <v>1705</v>
       </c>
       <c r="S6" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="T6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="U6" t="n">
-        <v>1430</v>
+        <v>580</v>
       </c>
       <c r="V6" t="n">
-        <v>9.800000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="W6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>3455</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>23.6</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>116</v>
+        <v>179</v>
       </c>
       <c r="AA6" t="n">
-        <v>126</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7">
@@ -866,38 +866,38 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>14525</v>
+        <v>24475</v>
       </c>
       <c r="E7" t="n">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="F7" t="n">
-        <v>2275</v>
+        <v>10595</v>
       </c>
       <c r="G7" t="n">
-        <v>15.7</v>
+        <v>43.3</v>
       </c>
       <c r="H7" t="n">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="I7" t="n">
-        <v>3745</v>
+        <v>5430</v>
       </c>
       <c r="J7" t="n">
-        <v>25.8</v>
+        <v>22.2</v>
       </c>
       <c r="K7" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L7" t="n">
-        <v>2685</v>
+        <v>5700</v>
       </c>
       <c r="M7" t="n">
-        <v>18.5</v>
+        <v>23.3</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -909,37 +909,37 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>735</v>
+      </c>
+      <c r="S7" t="n">
         <v>3</v>
       </c>
-      <c r="R7" t="n">
-        <v>535</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.7</v>
-      </c>
       <c r="T7" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="U7" t="n">
-        <v>1475</v>
+        <v>2015</v>
       </c>
       <c r="V7" t="n">
-        <v>10.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="W7" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>3810</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>26.2</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>103</v>
+        <v>178</v>
       </c>
       <c r="AA7" t="n">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8">
@@ -955,80 +955,80 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>24420</v>
+        <v>22975</v>
       </c>
       <c r="E8" t="n">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="F8" t="n">
-        <v>6115</v>
+        <v>8480</v>
       </c>
       <c r="G8" t="n">
-        <v>25</v>
+        <v>36.9</v>
       </c>
       <c r="H8" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I8" t="n">
-        <v>7845</v>
+        <v>5965</v>
       </c>
       <c r="J8" t="n">
-        <v>32.1</v>
+        <v>26</v>
       </c>
       <c r="K8" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>4285</v>
+        <v>5015</v>
       </c>
       <c r="M8" t="n">
-        <v>17.5</v>
+        <v>21.8</v>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>385</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>1160</v>
+        <v>1575</v>
       </c>
       <c r="S8" t="n">
-        <v>4.8</v>
+        <v>6.9</v>
       </c>
       <c r="T8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U8" t="n">
-        <v>2600</v>
+        <v>1940</v>
       </c>
       <c r="V8" t="n">
-        <v>10.6</v>
+        <v>8.4</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>2030</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="AA8" t="n">
-        <v>150</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9">
@@ -1044,80 +1044,80 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>28100</v>
+        <v>26915</v>
       </c>
       <c r="E9" t="n">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="F9" t="n">
-        <v>4850</v>
+        <v>9885</v>
       </c>
       <c r="G9" t="n">
-        <v>17.3</v>
+        <v>36.7</v>
       </c>
       <c r="H9" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I9" t="n">
-        <v>8180</v>
+        <v>8415</v>
       </c>
       <c r="J9" t="n">
-        <v>29.1</v>
+        <v>31.3</v>
       </c>
       <c r="K9" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="L9" t="n">
-        <v>5385</v>
+        <v>5340</v>
       </c>
       <c r="M9" t="n">
-        <v>19.2</v>
+        <v>19.8</v>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>1375</v>
+        <v>1945</v>
       </c>
       <c r="S9" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1330</v>
+      </c>
+      <c r="V9" t="n">
         <v>4.9</v>
       </c>
-      <c r="T9" t="n">
-        <v>28</v>
-      </c>
-      <c r="U9" t="n">
-        <v>5805</v>
-      </c>
-      <c r="V9" t="n">
-        <v>20.7</v>
-      </c>
       <c r="W9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>2135</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="AA9" t="n">
-        <v>164</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10">
@@ -1133,80 +1133,80 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>20920</v>
+        <v>27215</v>
       </c>
       <c r="E10" t="n">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="F10" t="n">
-        <v>2890</v>
+        <v>9660</v>
       </c>
       <c r="G10" t="n">
-        <v>13.8</v>
+        <v>35.5</v>
       </c>
       <c r="H10" t="n">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="I10" t="n">
-        <v>4440</v>
+        <v>9540</v>
       </c>
       <c r="J10" t="n">
-        <v>21.2</v>
+        <v>35.1</v>
       </c>
       <c r="K10" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="L10" t="n">
-        <v>4770</v>
+        <v>3800</v>
       </c>
       <c r="M10" t="n">
-        <v>22.8</v>
+        <v>14</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>1000</v>
+        <v>1060</v>
       </c>
       <c r="S10" t="n">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="T10" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="U10" t="n">
-        <v>3490</v>
+        <v>3155</v>
       </c>
       <c r="V10" t="n">
-        <v>16.7</v>
+        <v>11.6</v>
       </c>
       <c r="W10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>4230</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>20.2</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="AA10" t="n">
-        <v>146</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11">
@@ -1222,38 +1222,38 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>16495</v>
+        <v>24655</v>
       </c>
       <c r="E11" t="n">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="F11" t="n">
-        <v>2615</v>
+        <v>9445</v>
       </c>
       <c r="G11" t="n">
-        <v>15.9</v>
+        <v>38.3</v>
       </c>
       <c r="H11" t="n">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="I11" t="n">
-        <v>4125</v>
+        <v>6200</v>
       </c>
       <c r="J11" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="K11" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="L11" t="n">
-        <v>4095</v>
+        <v>7760</v>
       </c>
       <c r="M11" t="n">
-        <v>24.8</v>
+        <v>31.5</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1265,37 +1265,37 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>925</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T11" t="n">
         <v>2</v>
       </c>
-      <c r="R11" t="n">
-        <v>570</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T11" t="n">
-        <v>8</v>
-      </c>
       <c r="U11" t="n">
-        <v>1220</v>
+        <v>325</v>
       </c>
       <c r="V11" t="n">
-        <v>7.4</v>
+        <v>1.3</v>
       </c>
       <c r="W11" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>3870</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>23.5</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="AA11" t="n">
-        <v>132</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12">
@@ -1311,38 +1311,38 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>13045</v>
+        <v>24259</v>
       </c>
       <c r="E12" t="n">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="F12" t="n">
-        <v>2100</v>
+        <v>10575</v>
       </c>
       <c r="G12" t="n">
-        <v>16.1</v>
+        <v>43.6</v>
       </c>
       <c r="H12" t="n">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="I12" t="n">
-        <v>4000</v>
+        <v>6350</v>
       </c>
       <c r="J12" t="n">
-        <v>30.7</v>
+        <v>26.2</v>
       </c>
       <c r="K12" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="L12" t="n">
-        <v>3020</v>
+        <v>5134</v>
       </c>
       <c r="M12" t="n">
-        <v>23.2</v>
+        <v>21.2</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1354,37 +1354,37 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
-        <v>250</v>
+        <v>465</v>
       </c>
       <c r="S12" t="n">
         <v>1.9</v>
       </c>
       <c r="T12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U12" t="n">
-        <v>1380</v>
+        <v>1735</v>
       </c>
       <c r="V12" t="n">
-        <v>10.6</v>
+        <v>7.2</v>
       </c>
       <c r="W12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>2295</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>17.6</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="AA12" t="n">
-        <v>114</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13">
@@ -1400,38 +1400,38 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>14825</v>
+        <v>26465</v>
       </c>
       <c r="E13" t="n">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="F13" t="n">
-        <v>2830</v>
+        <v>11290</v>
       </c>
       <c r="G13" t="n">
-        <v>19.1</v>
+        <v>42.7</v>
       </c>
       <c r="H13" t="n">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="I13" t="n">
-        <v>4145</v>
+        <v>7210</v>
       </c>
       <c r="J13" t="n">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="K13" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>2785</v>
+        <v>5895</v>
       </c>
       <c r="M13" t="n">
-        <v>18.8</v>
+        <v>22.3</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1443,37 +1443,37 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
-        <v>825</v>
+        <v>510</v>
       </c>
       <c r="S13" t="n">
-        <v>5.6</v>
+        <v>1.9</v>
       </c>
       <c r="T13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U13" t="n">
-        <v>795</v>
+        <v>1560</v>
       </c>
       <c r="V13" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="W13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>3445</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="AA13" t="n">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14">
@@ -1489,38 +1489,38 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>20765</v>
+        <v>24830</v>
       </c>
       <c r="E14" t="n">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="F14" t="n">
-        <v>2610</v>
+        <v>10315</v>
       </c>
       <c r="G14" t="n">
-        <v>12.6</v>
+        <v>41.5</v>
       </c>
       <c r="H14" t="n">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="I14" t="n">
-        <v>5045</v>
+        <v>8585</v>
       </c>
       <c r="J14" t="n">
-        <v>24.3</v>
+        <v>34.6</v>
       </c>
       <c r="K14" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>4800</v>
+        <v>5260</v>
       </c>
       <c r="M14" t="n">
-        <v>23.1</v>
+        <v>21.2</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1532,37 +1532,37 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>4365</v>
+        <v>425</v>
       </c>
       <c r="S14" t="n">
-        <v>21</v>
+        <v>1.7</v>
       </c>
       <c r="T14" t="n">
         <v>1</v>
       </c>
       <c r="U14" t="n">
-        <v>150</v>
+        <v>245</v>
       </c>
       <c r="V14" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="W14" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>3795</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>18.3</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="AA14" t="n">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
@@ -1578,80 +1578,80 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>25375</v>
+        <v>28585</v>
       </c>
       <c r="E15" t="n">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="F15" t="n">
-        <v>6065</v>
+        <v>11190</v>
       </c>
       <c r="G15" t="n">
-        <v>23.9</v>
+        <v>39.1</v>
       </c>
       <c r="H15" t="n">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="I15" t="n">
-        <v>6380</v>
+        <v>8285</v>
       </c>
       <c r="J15" t="n">
-        <v>25.1</v>
+        <v>29</v>
       </c>
       <c r="K15" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>4735</v>
+        <v>5350</v>
       </c>
       <c r="M15" t="n">
         <v>18.7</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
-        <v>1555</v>
+        <v>1600</v>
       </c>
       <c r="S15" t="n">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="T15" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="U15" t="n">
-        <v>3955</v>
+        <v>2160</v>
       </c>
       <c r="V15" t="n">
-        <v>15.6</v>
+        <v>7.6</v>
       </c>
       <c r="W15" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>2650</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="AA15" t="n">
-        <v>153</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16">
@@ -1667,38 +1667,38 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>33465</v>
+        <v>35055</v>
       </c>
       <c r="E16" t="n">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="F16" t="n">
-        <v>5100</v>
+        <v>13505</v>
       </c>
       <c r="G16" t="n">
-        <v>15.2</v>
+        <v>38.5</v>
       </c>
       <c r="H16" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I16" t="n">
-        <v>9995</v>
+        <v>7845</v>
       </c>
       <c r="J16" t="n">
-        <v>29.9</v>
+        <v>22.4</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>560</v>
+        <v>8440</v>
       </c>
       <c r="M16" t="n">
-        <v>1.7</v>
+        <v>24.1</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1710,37 +1710,37 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>2960</v>
+        <v>2570</v>
       </c>
       <c r="S16" t="n">
-        <v>8.800000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="T16" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="U16" t="n">
-        <v>8935</v>
+        <v>2695</v>
       </c>
       <c r="V16" t="n">
-        <v>26.7</v>
+        <v>7.7</v>
       </c>
       <c r="W16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>5915</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>17.7</v>
+        <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="AA16" t="n">
-        <v>207</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17">
@@ -1756,80 +1756,80 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>17600</v>
+        <v>28309</v>
       </c>
       <c r="E17" t="n">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="F17" t="n">
-        <v>2500</v>
+        <v>12090</v>
       </c>
       <c r="G17" t="n">
-        <v>14.2</v>
+        <v>42.7</v>
       </c>
       <c r="H17" t="n">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="I17" t="n">
-        <v>4175</v>
+        <v>7245</v>
       </c>
       <c r="J17" t="n">
-        <v>23.7</v>
+        <v>25.6</v>
       </c>
       <c r="K17" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="L17" t="n">
-        <v>4315</v>
+        <v>4594</v>
       </c>
       <c r="M17" t="n">
-        <v>24.5</v>
+        <v>16.2</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>570</v>
+        <v>870</v>
       </c>
       <c r="S17" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="T17" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="U17" t="n">
-        <v>3105</v>
+        <v>3510</v>
       </c>
       <c r="V17" t="n">
-        <v>17.6</v>
+        <v>12.4</v>
       </c>
       <c r="W17" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>2795</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>15.9</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="AA17" t="n">
-        <v>118</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18">
@@ -1845,80 +1845,80 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>18415</v>
+        <v>26365</v>
       </c>
       <c r="E18" t="n">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="F18" t="n">
-        <v>1550</v>
+        <v>12960</v>
       </c>
       <c r="G18" t="n">
-        <v>8.4</v>
+        <v>49.2</v>
       </c>
       <c r="H18" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I18" t="n">
-        <v>4435</v>
+        <v>4250</v>
       </c>
       <c r="J18" t="n">
-        <v>24.1</v>
+        <v>16.1</v>
       </c>
       <c r="K18" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>3885</v>
+        <v>6825</v>
       </c>
       <c r="M18" t="n">
-        <v>21.1</v>
+        <v>25.9</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>2325</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>12.6</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R18" t="n">
-        <v>775</v>
+        <v>335</v>
       </c>
       <c r="S18" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="T18" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U18" t="n">
-        <v>1480</v>
+        <v>1995</v>
       </c>
       <c r="V18" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="W18" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>3965</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>21.5</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="AA18" t="n">
-        <v>151</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19">
@@ -1934,38 +1934,38 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>15640</v>
+        <v>22455</v>
       </c>
       <c r="E19" t="n">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F19" t="n">
-        <v>1595</v>
+        <v>8155</v>
       </c>
       <c r="G19" t="n">
-        <v>10.2</v>
+        <v>36.3</v>
       </c>
       <c r="H19" t="n">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="I19" t="n">
-        <v>4440</v>
+        <v>8080</v>
       </c>
       <c r="J19" t="n">
-        <v>28.4</v>
+        <v>36</v>
       </c>
       <c r="K19" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>3280</v>
+        <v>2795</v>
       </c>
       <c r="M19" t="n">
-        <v>21</v>
+        <v>12.4</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1977,37 +1977,37 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
-        <v>795</v>
+        <v>435</v>
       </c>
       <c r="S19" t="n">
-        <v>5.1</v>
+        <v>1.9</v>
       </c>
       <c r="T19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U19" t="n">
-        <v>1165</v>
+        <v>2990</v>
       </c>
       <c r="V19" t="n">
-        <v>7.4</v>
+        <v>13.3</v>
       </c>
       <c r="W19" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>4365</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>27.9</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AA19" t="n">
-        <v>99</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20">
@@ -2023,38 +2023,38 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>14715</v>
+        <v>27055</v>
       </c>
       <c r="E20" t="n">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="F20" t="n">
-        <v>2245</v>
+        <v>12125</v>
       </c>
       <c r="G20" t="n">
-        <v>15.3</v>
+        <v>44.8</v>
       </c>
       <c r="H20" t="n">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="I20" t="n">
-        <v>4250</v>
+        <v>7135</v>
       </c>
       <c r="J20" t="n">
-        <v>28.9</v>
+        <v>26.4</v>
       </c>
       <c r="K20" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
-        <v>2805</v>
+        <v>5275</v>
       </c>
       <c r="M20" t="n">
-        <v>19.1</v>
+        <v>19.5</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2066,37 +2066,37 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R20" t="n">
-        <v>425</v>
+        <v>385</v>
       </c>
       <c r="S20" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="T20" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="U20" t="n">
-        <v>1665</v>
+        <v>2135</v>
       </c>
       <c r="V20" t="n">
-        <v>11.3</v>
+        <v>7.9</v>
       </c>
       <c r="W20" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>3325</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>22.6</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="AA20" t="n">
-        <v>98</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21">
@@ -2112,38 +2112,38 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>15440</v>
+        <v>22243</v>
       </c>
       <c r="E21" t="n">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="F21" t="n">
-        <v>1880</v>
+        <v>11730</v>
       </c>
       <c r="G21" t="n">
-        <v>12.2</v>
+        <v>52.7</v>
       </c>
       <c r="H21" t="n">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="I21" t="n">
-        <v>4100</v>
+        <v>6902</v>
       </c>
       <c r="J21" t="n">
-        <v>26.6</v>
+        <v>31</v>
       </c>
       <c r="K21" t="n">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>4810</v>
+        <v>261</v>
       </c>
       <c r="M21" t="n">
-        <v>31.2</v>
+        <v>1.2</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2158,34 +2158,34 @@
         <v>1</v>
       </c>
       <c r="R21" t="n">
-        <v>355</v>
+        <v>225</v>
       </c>
       <c r="S21" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="T21" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="U21" t="n">
-        <v>2130</v>
+        <v>3125</v>
       </c>
       <c r="V21" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="W21" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>2165</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AA21" t="n">
-        <v>93</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22">
@@ -2201,80 +2201,80 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>20175</v>
+        <v>28375</v>
       </c>
       <c r="E22" t="n">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="F22" t="n">
-        <v>2060</v>
+        <v>13095</v>
       </c>
       <c r="G22" t="n">
-        <v>10.2</v>
+        <v>46.1</v>
       </c>
       <c r="H22" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I22" t="n">
-        <v>6575</v>
+        <v>6930</v>
       </c>
       <c r="J22" t="n">
-        <v>32.6</v>
+        <v>24.4</v>
       </c>
       <c r="K22" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>6920</v>
+        <v>5510</v>
       </c>
       <c r="M22" t="n">
-        <v>34.3</v>
+        <v>19.4</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>1735</v>
+        <v>230</v>
       </c>
       <c r="S22" t="n">
-        <v>8.6</v>
+        <v>0.8</v>
       </c>
       <c r="T22" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="U22" t="n">
-        <v>1040</v>
+        <v>2610</v>
       </c>
       <c r="V22" t="n">
-        <v>5.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="W22" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="AA22" t="n">
-        <v>120</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23">
@@ -2290,38 +2290,38 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>33240</v>
+        <v>30523</v>
       </c>
       <c r="E23" t="n">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="F23" t="n">
-        <v>6920</v>
+        <v>12240</v>
       </c>
       <c r="G23" t="n">
-        <v>20.8</v>
+        <v>40.1</v>
       </c>
       <c r="H23" t="n">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="I23" t="n">
-        <v>7700</v>
+        <v>9690</v>
       </c>
       <c r="J23" t="n">
-        <v>23.2</v>
+        <v>31.7</v>
       </c>
       <c r="K23" t="n">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="L23" t="n">
-        <v>6695</v>
+        <v>3928</v>
       </c>
       <c r="M23" t="n">
-        <v>20.1</v>
+        <v>12.9</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -2333,37 +2333,37 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
-        <v>2460</v>
+        <v>1815</v>
       </c>
       <c r="S23" t="n">
-        <v>7.4</v>
+        <v>5.9</v>
       </c>
       <c r="T23" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="U23" t="n">
-        <v>7670</v>
+        <v>2850</v>
       </c>
       <c r="V23" t="n">
-        <v>23.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="W23" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>1795</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="AA23" t="n">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24">
@@ -2379,80 +2379,80 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>19545</v>
+        <v>25928</v>
       </c>
       <c r="E24" t="n">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="F24" t="n">
-        <v>2120</v>
+        <v>10525</v>
       </c>
       <c r="G24" t="n">
-        <v>10.8</v>
+        <v>40.6</v>
       </c>
       <c r="H24" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="I24" t="n">
-        <v>5280</v>
+        <v>6825</v>
       </c>
       <c r="J24" t="n">
-        <v>27</v>
+        <v>26.3</v>
       </c>
       <c r="K24" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="L24" t="n">
-        <v>3520</v>
+        <v>4568</v>
       </c>
       <c r="M24" t="n">
-        <v>18</v>
+        <v>17.6</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R24" t="n">
-        <v>640</v>
+        <v>775</v>
       </c>
       <c r="S24" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="T24" t="n">
         <v>23</v>
       </c>
       <c r="U24" t="n">
-        <v>3285</v>
+        <v>3235</v>
       </c>
       <c r="V24" t="n">
-        <v>16.8</v>
+        <v>12.5</v>
       </c>
       <c r="W24" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>4615</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>23.6</v>
+        <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="AA24" t="n">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25">
@@ -2468,38 +2468,38 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>17055</v>
+        <v>24943</v>
       </c>
       <c r="E25" t="n">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="F25" t="n">
-        <v>3215</v>
+        <v>10355</v>
       </c>
       <c r="G25" t="n">
-        <v>18.9</v>
+        <v>41.5</v>
       </c>
       <c r="H25" t="n">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="I25" t="n">
-        <v>4760</v>
+        <v>5875</v>
       </c>
       <c r="J25" t="n">
-        <v>27.9</v>
+        <v>23.6</v>
       </c>
       <c r="K25" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="L25" t="n">
-        <v>3510</v>
+        <v>5603</v>
       </c>
       <c r="M25" t="n">
-        <v>20.6</v>
+        <v>22.5</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2511,37 +2511,37 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
-        <v>860</v>
+        <v>100</v>
       </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="T25" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="U25" t="n">
-        <v>2475</v>
+        <v>3010</v>
       </c>
       <c r="V25" t="n">
-        <v>14.5</v>
+        <v>12.1</v>
       </c>
       <c r="W25" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>2235</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>13.1</v>
+        <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA25" t="n">
-        <v>113</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26">
@@ -2557,38 +2557,38 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>15240</v>
+        <v>23685</v>
       </c>
       <c r="E26" t="n">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F26" t="n">
-        <v>2180</v>
+        <v>9060</v>
       </c>
       <c r="G26" t="n">
-        <v>14.3</v>
+        <v>38.3</v>
       </c>
       <c r="H26" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="I26" t="n">
-        <v>5285</v>
+        <v>6505</v>
       </c>
       <c r="J26" t="n">
-        <v>34.7</v>
+        <v>27.5</v>
       </c>
       <c r="K26" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="L26" t="n">
-        <v>3980</v>
+        <v>4650</v>
       </c>
       <c r="M26" t="n">
-        <v>26.1</v>
+        <v>19.6</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2600,37 +2600,37 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R26" t="n">
-        <v>805</v>
+        <v>960</v>
       </c>
       <c r="S26" t="n">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
       <c r="T26" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="U26" t="n">
-        <v>1425</v>
+        <v>2510</v>
       </c>
       <c r="V26" t="n">
-        <v>9.4</v>
+        <v>10.6</v>
       </c>
       <c r="W26" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1565</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>10.3</v>
+        <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="AA26" t="n">
-        <v>106</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27">
@@ -2646,38 +2646,38 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>27055</v>
+        <v>25055</v>
       </c>
       <c r="E27" t="n">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="F27" t="n">
-        <v>5210</v>
+        <v>10510</v>
       </c>
       <c r="G27" t="n">
-        <v>19.3</v>
+        <v>41.9</v>
       </c>
       <c r="H27" t="n">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="I27" t="n">
-        <v>10025</v>
+        <v>6900</v>
       </c>
       <c r="J27" t="n">
-        <v>37.1</v>
+        <v>27.5</v>
       </c>
       <c r="K27" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L27" t="n">
-        <v>2685</v>
+        <v>2140</v>
       </c>
       <c r="M27" t="n">
-        <v>9.9</v>
+        <v>8.5</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -2689,37 +2689,37 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R27" t="n">
-        <v>710</v>
+        <v>635</v>
       </c>
       <c r="S27" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="T27" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="U27" t="n">
-        <v>5115</v>
+        <v>4870</v>
       </c>
       <c r="V27" t="n">
-        <v>18.9</v>
+        <v>19.4</v>
       </c>
       <c r="W27" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>3310</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>12.2</v>
+        <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="AA27" t="n">
-        <v>165</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28">
@@ -2735,80 +2735,80 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>26785</v>
+        <v>24870</v>
       </c>
       <c r="E28" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="F28" t="n">
-        <v>3620</v>
+        <v>9805</v>
       </c>
       <c r="G28" t="n">
-        <v>13.5</v>
+        <v>39.4</v>
       </c>
       <c r="H28" t="n">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="I28" t="n">
-        <v>10280</v>
+        <v>5315</v>
       </c>
       <c r="J28" t="n">
-        <v>38.4</v>
+        <v>21.4</v>
       </c>
       <c r="K28" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="L28" t="n">
-        <v>4355</v>
+        <v>5885</v>
       </c>
       <c r="M28" t="n">
-        <v>16.3</v>
+        <v>23.7</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R28" t="n">
-        <v>1395</v>
+        <v>835</v>
       </c>
       <c r="S28" t="n">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="T28" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="U28" t="n">
-        <v>4970</v>
+        <v>3030</v>
       </c>
       <c r="V28" t="n">
-        <v>18.6</v>
+        <v>12.2</v>
       </c>
       <c r="W28" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>1975</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="AA28" t="n">
-        <v>147</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29">
@@ -2824,80 +2824,80 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>30705</v>
+        <v>31850</v>
       </c>
       <c r="E29" t="n">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="F29" t="n">
-        <v>5860</v>
+        <v>11925</v>
       </c>
       <c r="G29" t="n">
-        <v>19.1</v>
+        <v>37.4</v>
       </c>
       <c r="H29" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="I29" t="n">
-        <v>8380</v>
+        <v>9615</v>
       </c>
       <c r="J29" t="n">
-        <v>27.3</v>
+        <v>30.2</v>
       </c>
       <c r="K29" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="L29" t="n">
-        <v>5980</v>
+        <v>4090</v>
       </c>
       <c r="M29" t="n">
-        <v>19.5</v>
+        <v>12.8</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R29" t="n">
-        <v>2150</v>
+        <v>2200</v>
       </c>
       <c r="S29" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="T29" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="U29" t="n">
-        <v>6185</v>
+        <v>4020</v>
       </c>
       <c r="V29" t="n">
-        <v>20.1</v>
+        <v>12.6</v>
       </c>
       <c r="W29" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1975</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AA29" t="n">
-        <v>171</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30">
@@ -2913,38 +2913,38 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>31910</v>
+        <v>35124</v>
       </c>
       <c r="E30" t="n">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="F30" t="n">
-        <v>5405</v>
+        <v>13620</v>
       </c>
       <c r="G30" t="n">
-        <v>16.9</v>
+        <v>38.8</v>
       </c>
       <c r="H30" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I30" t="n">
-        <v>8655</v>
+        <v>9025</v>
       </c>
       <c r="J30" t="n">
-        <v>27.1</v>
+        <v>25.7</v>
       </c>
       <c r="K30" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="L30" t="n">
-        <v>5585</v>
+        <v>7834</v>
       </c>
       <c r="M30" t="n">
-        <v>17.5</v>
+        <v>22.3</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2956,37 +2956,37 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R30" t="n">
-        <v>1970</v>
+        <v>1475</v>
       </c>
       <c r="S30" t="n">
-        <v>6.2</v>
+        <v>4.2</v>
       </c>
       <c r="T30" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="U30" t="n">
-        <v>8245</v>
+        <v>3170</v>
       </c>
       <c r="V30" t="n">
-        <v>25.8</v>
+        <v>9</v>
       </c>
       <c r="W30" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="AA30" t="n">
-        <v>161</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31">
@@ -3002,38 +3002,38 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>21260</v>
+        <v>19053</v>
       </c>
       <c r="E31" t="n">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="F31" t="n">
-        <v>2905</v>
+        <v>8871</v>
       </c>
       <c r="G31" t="n">
-        <v>13.7</v>
+        <v>46.6</v>
       </c>
       <c r="H31" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="I31" t="n">
-        <v>6095</v>
+        <v>5850</v>
       </c>
       <c r="J31" t="n">
-        <v>28.7</v>
+        <v>30.7</v>
       </c>
       <c r="K31" t="n">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="L31" t="n">
-        <v>5160</v>
+        <v>2577</v>
       </c>
       <c r="M31" t="n">
-        <v>24.3</v>
+        <v>13.5</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -3045,37 +3045,37 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>510</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="U31" t="n">
-        <v>2130</v>
+        <v>1755</v>
       </c>
       <c r="V31" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="W31" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>4460</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="AA31" t="n">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32">
@@ -3091,80 +3091,80 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>16270</v>
+        <v>25211</v>
       </c>
       <c r="E32" t="n">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="F32" t="n">
-        <v>2390</v>
+        <v>9060</v>
       </c>
       <c r="G32" t="n">
-        <v>14.7</v>
+        <v>35.9</v>
       </c>
       <c r="H32" t="n">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="I32" t="n">
-        <v>3990</v>
+        <v>7480</v>
       </c>
       <c r="J32" t="n">
-        <v>24.5</v>
+        <v>29.7</v>
       </c>
       <c r="K32" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L32" t="n">
-        <v>1990</v>
+        <v>4196</v>
       </c>
       <c r="M32" t="n">
-        <v>12.2</v>
+        <v>16.6</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R32" t="n">
-        <v>890</v>
+        <v>640</v>
       </c>
       <c r="S32" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="T32" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="U32" t="n">
-        <v>2215</v>
+        <v>3835</v>
       </c>
       <c r="V32" t="n">
-        <v>13.6</v>
+        <v>15.2</v>
       </c>
       <c r="W32" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>4605</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>28.3</v>
+        <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="AA32" t="n">
-        <v>129</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33">
@@ -3176,76 +3176,76 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>617450</v>
+        <v>787123</v>
       </c>
       <c r="E33" t="n">
-        <v>726</v>
+        <v>2262</v>
       </c>
       <c r="F33" t="n">
-        <v>98060</v>
+        <v>324280</v>
       </c>
       <c r="G33" t="n">
-        <v>15.9</v>
+        <v>41.2</v>
       </c>
       <c r="H33" t="n">
-        <v>1529</v>
+        <v>2099</v>
       </c>
       <c r="I33" t="n">
-        <v>174925</v>
+        <v>213927</v>
       </c>
       <c r="J33" t="n">
-        <v>28.3</v>
+        <v>27.2</v>
       </c>
       <c r="K33" t="n">
-        <v>1026</v>
+        <v>245</v>
       </c>
       <c r="L33" t="n">
-        <v>121480</v>
+        <v>151076</v>
       </c>
       <c r="M33" t="n">
-        <v>19.7</v>
+        <v>19.2</v>
       </c>
       <c r="N33" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>4365</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
+        <v>29</v>
+      </c>
+      <c r="R33" t="n">
+        <v>27010</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T33" t="n">
+        <v>156</v>
+      </c>
+      <c r="U33" t="n">
+        <v>70830</v>
+      </c>
+      <c r="V33" t="n">
+        <v>9</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>4791</v>
+      </c>
+      <c r="AA33" t="n">
         <v>164</v>
-      </c>
-      <c r="R33" t="n">
-        <v>34185</v>
-      </c>
-      <c r="S33" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T33" t="n">
-        <v>516</v>
-      </c>
-      <c r="U33" t="n">
-        <v>90665</v>
-      </c>
-      <c r="V33" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="W33" t="n">
-        <v>496</v>
-      </c>
-      <c r="X33" t="n">
-        <v>93770</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>4475</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
